--- a/Client/Assets/02. Scripts/Parse/GameData/Weapon_Stat.xlsx
+++ b/Client/Assets/02. Scripts/Parse/GameData/Weapon_Stat.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7AD2A-74D6-4048-B956-C749E67B1FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191884D-C0C3-4D81-ACFB-7D4EA64229F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-23895" yWindow="1800" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weapon_Stat" sheetId="1" r:id="rId1"/>
+    <sheet name="Stat" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,10 +57,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name(Info)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,12 +83,16 @@
     <t>야구방망이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,12 +116,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -528,7 +522,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -565,7 +559,7 @@
         <v>2001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -585,7 +579,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -608,6 +602,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -765,12 +765,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -781,6 +775,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -798,22 +808,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
